--- a/output/eurostat/annual_households_gas_space_heating_std_bcm.xlsx
+++ b/output/eurostat/annual_households_gas_space_heating_std_bcm.xlsx
@@ -791,49 +791,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3549475025312654</v>
+        <v>0.3549475025312656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3932254275970608</v>
+        <v>0.3932254275970609</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4334047028424152</v>
+        <v>0.4334047028424153</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4754773894222773</v>
+        <v>0.4754773894222774</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5193459733104657</v>
+        <v>0.5193459733104659</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5649552992802822</v>
+        <v>0.5649552992802824</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6123359913426414</v>
+        <v>0.6123359913426416</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6612291136406016</v>
+        <v>0.6612291136406017</v>
       </c>
       <c r="J6" t="n">
-        <v>0.711600168543549</v>
+        <v>0.7116001685435491</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7633922143211633</v>
+        <v>0.7633922143211636</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8162791399262628</v>
+        <v>0.8162791399262629</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8701430529374549</v>
+        <v>0.8701430529374552</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9249945635265846</v>
+        <v>0.9249945635265849</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9808192906733669</v>
+        <v>0.980819290673367</v>
       </c>
       <c r="P6" t="n">
-        <v>1.037450481792486</v>
+        <v>1.037450481792487</v>
       </c>
       <c r="Q6" t="n">
         <v>1.094904939833087</v>
@@ -848,10 +848,10 @@
         <v>1.271532373073971</v>
       </c>
       <c r="U6" t="n">
-        <v>1.331615091615707</v>
+        <v>1.331615091615708</v>
       </c>
       <c r="V6" t="n">
-        <v>1.392110159029153</v>
+        <v>1.392110159029154</v>
       </c>
     </row>
     <row r="7">
@@ -1351,40 +1351,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04821111195068781</v>
+        <v>0.04821111195068783</v>
       </c>
       <c r="C14" t="n">
         <v>0.05182902027389415</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05555765181277244</v>
+        <v>0.05555765181277245</v>
       </c>
       <c r="E14" t="n">
         <v>0.05937929121290648</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06329025313986381</v>
+        <v>0.06329025313986382</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06728813893479371</v>
+        <v>0.06728813893479373</v>
       </c>
       <c r="H14" t="n">
         <v>0.07136061333082866</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07550587631555261</v>
+        <v>0.07550587631555263</v>
       </c>
       <c r="J14" t="n">
         <v>0.07971747526947574</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08399878705282569</v>
+        <v>0.08399878705282571</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08833290894853112</v>
+        <v>0.08833290894853113</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0927180334729976</v>
+        <v>0.09271803347299762</v>
       </c>
       <c r="N14" t="n">
         <v>0.0971463051050005</v>
@@ -1402,13 +1402,13 @@
         <v>0.1153376270293597</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1199708285538544</v>
+        <v>0.1199708285538545</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1246362002554355</v>
+        <v>0.1246362002554356</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1293224825529118</v>
+        <v>0.1293224825529119</v>
       </c>
       <c r="V14" t="n">
         <v>0.1340239102695533</v>
@@ -1710,10 +1710,10 @@
         <v>0.07508860839258838</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08231082279174325</v>
+        <v>0.08231082279174327</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09001429694073186</v>
+        <v>0.0900142969407319</v>
       </c>
       <c r="G19" t="n">
         <v>0.09819884809234403</v>
@@ -1725,7 +1725,7 @@
         <v>0.115820889337846</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1252119832585006</v>
+        <v>0.1252119832585007</v>
       </c>
       <c r="K19" t="n">
         <v>0.1349120129745174</v>
@@ -1734,25 +1734,25 @@
         <v>0.1448515324418221</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1550335493137789</v>
+        <v>0.155033549313779</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1654315992761236</v>
+        <v>0.1654315992761237</v>
       </c>
       <c r="O19" t="n">
         <v>0.1760535237442194</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1868643258232773</v>
+        <v>0.1868643258232774</v>
       </c>
       <c r="Q19" t="n">
         <v>0.1978502349597011</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2089528521275026</v>
+        <v>0.2089528521275027</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2201454061548739</v>
+        <v>0.2201454061548738</v>
       </c>
       <c r="T19" t="n">
         <v>0.2314225241467908</v>
@@ -1771,67 +1771,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0561292964534123</v>
+        <v>0.05612929645341227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06057704939093207</v>
+        <v>0.06057704939093203</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06517327880351248</v>
+        <v>0.06517327880351244</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06990904581231144</v>
+        <v>0.06990904581231139</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07479257578837581</v>
+        <v>0.07479257578837575</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07981063706211076</v>
+        <v>0.07981063706211072</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08495429680601631</v>
+        <v>0.08495429680601622</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09021838296730218</v>
+        <v>0.0902183829673021</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09559350180276389</v>
+        <v>0.09559350180276383</v>
       </c>
       <c r="K20" t="n">
         <v>0.1010730873051345</v>
       </c>
       <c r="L20" t="n">
-        <v>0.106663215859594</v>
+        <v>0.1066632158595939</v>
       </c>
       <c r="M20" t="n">
-        <v>0.112339312594384</v>
+        <v>0.1123393125943839</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1180952645768669</v>
+        <v>0.1180952645768668</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1239280101466934</v>
+        <v>0.1239280101466933</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1298285959828404</v>
+        <v>0.1298285959828403</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1358021180480829</v>
+        <v>0.1358021180480828</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1418332764968888</v>
+        <v>0.1418332764968887</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1479164381089326</v>
+        <v>0.1479164381089325</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1540441082919748</v>
+        <v>0.1540441082919747</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1602034888267953</v>
+        <v>0.1602034888267952</v>
       </c>
       <c r="V20" t="n">
-        <v>0.166395078392583</v>
+        <v>0.1663950783925828</v>
       </c>
     </row>
     <row r="21">
@@ -1938,7 +1938,7 @@
         <v>0.002607318190774887</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00275079458273205</v>
+        <v>0.002750794582732051</v>
       </c>
       <c r="L22" t="n">
         <v>0.002896956598863165</v>
@@ -1950,7 +1950,7 @@
         <v>0.00319461099467757</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003346286808561965</v>
+        <v>0.003346286808561966</v>
       </c>
       <c r="P22" t="n">
         <v>0.003499828131559112</v>
@@ -1959,13 +1959,13 @@
         <v>0.003654626331850532</v>
       </c>
       <c r="R22" t="n">
-        <v>0.003810495085159492</v>
+        <v>0.003810495085159493</v>
       </c>
       <c r="S22" t="n">
-        <v>0.003967123027230868</v>
+        <v>0.003967123027230869</v>
       </c>
       <c r="T22" t="n">
-        <v>0.004124420314490489</v>
+        <v>0.00412442031449049</v>
       </c>
       <c r="U22" t="n">
         <v>0.004282302559677448</v>
@@ -2191,19 +2191,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006618123920293289</v>
+        <v>0.006618123920293286</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007313851030015905</v>
+        <v>0.007313851030015902</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008037686217663284</v>
+        <v>0.00803768621766328</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008790346633765857</v>
+        <v>0.008790346633765855</v>
       </c>
       <c r="F26" t="n">
-        <v>0.009571099483075876</v>
+        <v>0.009571099483075874</v>
       </c>
       <c r="G26" t="n">
         <v>0.01038023905841934</v>
@@ -2212,10 +2212,10 @@
         <v>0.01121754916154295</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01207807629527606</v>
+        <v>0.01207807629527605</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01296411168963703</v>
+        <v>0.01296411168963702</v>
       </c>
       <c r="K26" t="n">
         <v>0.01387070305186457</v>
@@ -2224,34 +2224,34 @@
         <v>0.01480010438463906</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01575034972836592</v>
+        <v>0.01575034972836591</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01672117649778899</v>
+        <v>0.01672117649778898</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01771216360339177</v>
+        <v>0.01771216360339176</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01872032662197601</v>
+        <v>0.018720326621976</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.019742242728217</v>
+        <v>0.01974224272821699</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02077502208689604</v>
+        <v>0.02077502208689603</v>
       </c>
       <c r="S26" t="n">
         <v>0.02181754021274732</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02286983967078369</v>
+        <v>0.02286983967078368</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02393174838976508</v>
+        <v>0.02393174838976507</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02500046920941717</v>
+        <v>0.02500046920941715</v>
       </c>
     </row>
     <row r="27">
@@ -2264,22 +2264,22 @@
         <v>0.0001970418141912826</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002596042683811716</v>
+        <v>0.0002596042683811714</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003384692601059506</v>
+        <v>0.0003384692601059505</v>
       </c>
       <c r="E27" t="n">
         <v>0.0004371453930399351</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0005549962699588379</v>
+        <v>0.0005549962699588378</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000691657461482855</v>
+        <v>0.0006916574614828549</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0008485808362904839</v>
+        <v>0.0008485808362904838</v>
       </c>
       <c r="I27" t="n">
         <v>0.001025624521782132</v>
@@ -2291,7 +2291,7 @@
         <v>0.001429322964773205</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001652379755606467</v>
+        <v>0.001652379755606466</v>
       </c>
       <c r="M27" t="n">
         <v>0.001887772905494918</v>
@@ -2306,13 +2306,13 @@
         <v>0.002638586215146595</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.002896534265545386</v>
+        <v>0.002896534265545384</v>
       </c>
       <c r="R27" t="n">
         <v>0.003157123620163236</v>
       </c>
       <c r="S27" t="n">
-        <v>0.00341966166942842</v>
+        <v>0.003419661669428419</v>
       </c>
       <c r="T27" t="n">
         <v>0.003684226436954133</v>
@@ -2321,7 +2321,7 @@
         <v>0.003950039782777534</v>
       </c>
       <c r="V27" t="n">
-        <v>0.004216750516229173</v>
+        <v>0.004216750516229172</v>
       </c>
     </row>
     <row r="28">
@@ -2835,40 +2835,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4008326525421381</v>
+        <v>0.4008326525421382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4432113780106722</v>
+        <v>0.4432113780106723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4872976481949991</v>
+        <v>0.4872976481949993</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5330769289723234</v>
+        <v>0.5330769289723235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5804901568034802</v>
+        <v>0.5804901568034805</v>
       </c>
       <c r="G6" t="n">
-        <v>0.629571291633039</v>
+        <v>0.6295712916330392</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6800811949805678</v>
+        <v>0.6800811949805681</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7318758583370657</v>
+        <v>0.7318758583370658</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7849910648966339</v>
+        <v>0.7849910648966344</v>
       </c>
       <c r="K6" t="n">
-        <v>0.839389312067981</v>
+        <v>0.8393893120679811</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8948376149564135</v>
+        <v>0.8948376149564138</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9510995452217923</v>
+        <v>0.9510995452217925</v>
       </c>
       <c r="N6" t="n">
         <v>1.008124115820619</v>
@@ -2877,13 +2877,13 @@
         <v>1.065819615190152</v>
       </c>
       <c r="P6" t="n">
-        <v>1.124102295085516</v>
+        <v>1.124102295085517</v>
       </c>
       <c r="Q6" t="n">
         <v>1.183034196109249</v>
       </c>
       <c r="R6" t="n">
-        <v>1.242458611495467</v>
+        <v>1.242458611495468</v>
       </c>
       <c r="S6" t="n">
         <v>1.302229169209458</v>
@@ -3395,34 +3395,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05888999688540014</v>
+        <v>0.05888999688540015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06270047538984036</v>
+        <v>0.06270047538984037</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06659520117040865</v>
+        <v>0.06659520117040867</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07057697140716358</v>
+        <v>0.07057697140716361</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07464857726476824</v>
+        <v>0.07464857726476827</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07879947585067222</v>
+        <v>0.07879947585067225</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08301890965325227</v>
+        <v>0.08301890965325229</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08730489300106571</v>
+        <v>0.08730489300106573</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0916475815485016</v>
+        <v>0.09164758154850162</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09604635908628356</v>
+        <v>0.09604635908628358</v>
       </c>
       <c r="L14" t="n">
         <v>0.100486095263461</v>
@@ -3443,7 +3443,7 @@
         <v>0.1231954804312285</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1278181008846509</v>
+        <v>0.127818100884651</v>
       </c>
       <c r="S14" t="n">
         <v>0.132463592514963</v>
@@ -3745,10 +3745,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07358336674560817</v>
+        <v>0.0735833667456082</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08100265777708732</v>
+        <v>0.08100265777708733</v>
       </c>
       <c r="D19" t="n">
         <v>0.08907992874056182</v>
@@ -3790,7 +3790,7 @@
         <v>0.2120862757524676</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2234622493912104</v>
+        <v>0.2234622493912105</v>
       </c>
       <c r="R19" t="n">
         <v>0.2348927097192422</v>
@@ -3805,7 +3805,7 @@
         <v>0.2693824730060013</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2809074137277178</v>
+        <v>0.2809074137277179</v>
       </c>
     </row>
     <row r="20">
@@ -3815,67 +3815,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06674972622044341</v>
+        <v>0.06674972622044337</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07096175186025241</v>
+        <v>0.07096175186025236</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07529273617581116</v>
+        <v>0.07529273617581111</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07973681842480973</v>
+        <v>0.07973681842480967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0843097149683328</v>
+        <v>0.08430971496833273</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0890046199405478</v>
+        <v>0.08900461994054772</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0937978162206408</v>
+        <v>0.09379781622064069</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09870332882270287</v>
+        <v>0.09870332882270282</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1037166140502561</v>
+        <v>0.103716614050256</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1088331664307288</v>
+        <v>0.1088331664307287</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1140499206335372</v>
+        <v>0.1140499206335371</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1193647351679035</v>
+        <v>0.1193647351679034</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1247665106500012</v>
+        <v>0.1247665106500011</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1302622214175646</v>
+        <v>0.1302622214175645</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1358398535368112</v>
+        <v>0.1358398535368111</v>
       </c>
       <c r="Q20" t="n">
         <v>0.1415029625634166</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1472419524030944</v>
+        <v>0.1472419524030943</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1530472075350219</v>
+        <v>0.1530472075350218</v>
       </c>
       <c r="T20" t="n">
         <v>0.1589216396076314</v>
       </c>
       <c r="U20" t="n">
-        <v>0.164862576431395</v>
+        <v>0.1648625764313949</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1708538743892714</v>
+        <v>0.1708538743892713</v>
       </c>
     </row>
     <row r="21">
@@ -3982,7 +3982,7 @@
         <v>0.002607318190774887</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00275079458273205</v>
+        <v>0.002750794582732051</v>
       </c>
       <c r="L22" t="n">
         <v>0.002896956598863165</v>
@@ -3994,7 +3994,7 @@
         <v>0.00319461099467757</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003346286808561965</v>
+        <v>0.003346286808561966</v>
       </c>
       <c r="P22" t="n">
         <v>0.003499828131559112</v>
@@ -4003,13 +4003,13 @@
         <v>0.003654626331850532</v>
       </c>
       <c r="R22" t="n">
-        <v>0.003810495085159492</v>
+        <v>0.003810495085159493</v>
       </c>
       <c r="S22" t="n">
-        <v>0.003967123027230868</v>
+        <v>0.003967123027230869</v>
       </c>
       <c r="T22" t="n">
-        <v>0.004124420314490489</v>
+        <v>0.00412442031449049</v>
       </c>
       <c r="U22" t="n">
         <v>0.004282302559677448</v>
@@ -4235,67 +4235,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008184868265039846</v>
+        <v>0.008184868265039842</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00895224902867095</v>
+        <v>0.008952249028670948</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00975002618537046</v>
+        <v>0.009750026185370455</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01057475342605474</v>
+        <v>0.01057475342605473</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01142339070240795</v>
+        <v>0.01142339070240794</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01229445177159196</v>
+        <v>0.01229445177159195</v>
       </c>
       <c r="H26" t="n">
         <v>0.01318775149379288</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01410640371395381</v>
+        <v>0.0141064037139538</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01504463108607448</v>
+        <v>0.01504463108607447</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01600083360843632</v>
+        <v>0.01600083360843631</v>
       </c>
       <c r="L26" t="n">
         <v>0.01697054161769392</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01795437299225382</v>
+        <v>0.01795437299225381</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01895142245527025</v>
+        <v>0.01895142245527024</v>
       </c>
       <c r="O26" t="n">
         <v>0.01996091148368965</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02098156478703387</v>
+        <v>0.02098156478703386</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02201433015796535</v>
+        <v>0.02201433015796534</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02305801579155225</v>
+        <v>0.02305801579155223</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02411248654179813</v>
+        <v>0.02411248654179812</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02517604736935427</v>
+        <v>0.02517604736935426</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02624765039418448</v>
+        <v>0.02624765039418446</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02732772454217778</v>
+        <v>0.02732772454217777</v>
       </c>
     </row>
     <row r="27">
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001863866383964664</v>
+        <v>0.0001863866383964663</v>
       </c>
       <c r="C27" t="n">
         <v>0.0002436989889460236</v>
@@ -4314,34 +4314,34 @@
         <v>0.0003201781626678871</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0004147286607816857</v>
+        <v>0.0004147286607816856</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0005319462920610788</v>
+        <v>0.0005319462920610786</v>
       </c>
       <c r="G27" t="n">
         <v>0.0006730534074652494</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0008352760719976854</v>
+        <v>0.0008352760719976853</v>
       </c>
       <c r="I27" t="n">
         <v>0.001018765839608136</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001219144842888875</v>
+        <v>0.001219144842888874</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001436007979391191</v>
+        <v>0.00143600797939119</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001664419009326999</v>
+        <v>0.001664419009326998</v>
       </c>
       <c r="M27" t="n">
-        <v>0.001901372390641133</v>
+        <v>0.001901372390641132</v>
       </c>
       <c r="N27" t="n">
-        <v>0.002144402795035856</v>
+        <v>0.002144402795035855</v>
       </c>
       <c r="O27" t="n">
         <v>0.002393345894022673</v>
@@ -4353,10 +4353,10 @@
         <v>0.002901970609228789</v>
       </c>
       <c r="R27" t="n">
-        <v>0.00316049278521011</v>
+        <v>0.003160492785210109</v>
       </c>
       <c r="S27" t="n">
-        <v>0.003422056140500647</v>
+        <v>0.003422056140500646</v>
       </c>
       <c r="T27" t="n">
         <v>0.003686050789293238</v>
@@ -4879,37 +4879,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4855442486900418</v>
+        <v>0.4855442486900419</v>
       </c>
       <c r="C6" t="n">
         <v>0.5306220650700747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5772152703514358</v>
+        <v>0.5772152703514359</v>
       </c>
       <c r="E6" t="n">
         <v>0.6250205614986279</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6740206695676704</v>
+        <v>0.6740206695676705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7242675325357203</v>
+        <v>0.7242675325357204</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7759155495288166</v>
+        <v>0.7759155495288169</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8286377741880003</v>
+        <v>0.8286377741880004</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8822178817783441</v>
+        <v>0.8822178817783444</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9366800332281936</v>
+        <v>0.9366800332281938</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9919774110513815</v>
+        <v>0.9919774110513817</v>
       </c>
       <c r="M6" t="n">
         <v>1.048266597852856</v>
@@ -4927,7 +4927,7 @@
         <v>1.281157485774619</v>
       </c>
       <c r="R6" t="n">
-        <v>1.340897920797375</v>
+        <v>1.340897920797376</v>
       </c>
       <c r="S6" t="n">
         <v>1.400983487591956</v>
@@ -4939,7 +4939,7 @@
         <v>1.522189661994306</v>
       </c>
       <c r="V6" t="n">
-        <v>1.583220624520696</v>
+        <v>1.583220624520697</v>
       </c>
     </row>
     <row r="7">
@@ -5439,25 +5439,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07067157426337006</v>
+        <v>0.07067157426337008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07473246963717738</v>
+        <v>0.07473246963717739</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07886468737908137</v>
+        <v>0.07886468737908138</v>
       </c>
       <c r="E14" t="n">
         <v>0.08306208254382119</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08731220782363143</v>
+        <v>0.08731220782363144</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09161384643681598</v>
+        <v>0.091613846436816</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09596666181784298</v>
+        <v>0.095966661817843</v>
       </c>
       <c r="I14" t="n">
         <v>0.1003593147404944</v>
@@ -5466,7 +5466,7 @@
         <v>0.1047881620945234</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1092535076667175</v>
+        <v>0.1092535076667176</v>
       </c>
       <c r="L14" t="n">
         <v>0.1137443079082768</v>
@@ -5481,10 +5481,10 @@
         <v>0.1273388059620213</v>
       </c>
       <c r="P14" t="n">
-        <v>0.13191628728589</v>
+        <v>0.1319162872858901</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1365142640792154</v>
+        <v>0.1365142640792155</v>
       </c>
       <c r="R14" t="n">
         <v>0.1411314652144547</v>
@@ -5493,13 +5493,13 @@
         <v>0.1457639347597209</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1504169572694613</v>
+        <v>0.1504169572694614</v>
       </c>
       <c r="U14" t="n">
         <v>0.1550895040910634</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1597741780914498</v>
+        <v>0.1597741780914499</v>
       </c>
     </row>
     <row r="15">
@@ -5859,67 +5859,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0757039478520397</v>
+        <v>0.07570394785203964</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08046642820779693</v>
+        <v>0.08046642820779688</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08535373657840276</v>
+        <v>0.0853537365784027</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09035399944532962</v>
+        <v>0.09035399944532956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09546619933009039</v>
+        <v>0.09546619933009032</v>
       </c>
       <c r="G20" t="n">
         <v>0.1006861243180319</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1060049404377663</v>
+        <v>0.1060049404377662</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1114170096844266</v>
+        <v>0.1114170096844265</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1169268459654388</v>
+        <v>0.1169268459654387</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1225155354914621</v>
+        <v>0.122515535491462</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1281747124683614</v>
+        <v>0.1281747124683613</v>
       </c>
       <c r="M20" t="n">
         <v>0.1339056860666316</v>
       </c>
       <c r="N20" t="n">
-        <v>0.139705469545253</v>
+        <v>0.1397054695452529</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1455639146231959</v>
+        <v>0.1455639146231957</v>
       </c>
       <c r="P20" t="n">
         <v>0.1514715461148392</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.157430281283874</v>
+        <v>0.1574302812838739</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1634354632265999</v>
+        <v>0.1634354632265998</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1694814144948489</v>
+        <v>0.1694814144948488</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1755644789995077</v>
+        <v>0.1755644789995076</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1816766684658319</v>
+        <v>0.1816766684658317</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1878155426442269</v>
+        <v>0.1878155426442267</v>
       </c>
     </row>
     <row r="21">
@@ -6002,10 +6002,10 @@
         <v>0.002113385506279732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002242282244390523</v>
+        <v>0.002242282244390524</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00237425934417303</v>
+        <v>0.002374259344173031</v>
       </c>
       <c r="E22" t="n">
         <v>0.002509387796073523</v>
@@ -6020,7 +6020,7 @@
         <v>0.002932507221794546</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003077556326616495</v>
+        <v>0.003077556326616496</v>
       </c>
       <c r="J22" t="n">
         <v>0.003224133077492617</v>
@@ -6032,7 +6032,7 @@
         <v>0.003521942488582454</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00367286500379457</v>
+        <v>0.003672865003794571</v>
       </c>
       <c r="N22" t="n">
         <v>0.003824871289891186</v>
@@ -6044,7 +6044,7 @@
         <v>0.004132099825913005</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00428713597999939</v>
+        <v>0.004287135979999391</v>
       </c>
       <c r="R22" t="n">
         <v>0.004443033378378173</v>
@@ -6056,7 +6056,7 @@
         <v>0.004756421335636436</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004913866750868738</v>
+        <v>0.004913866750868739</v>
       </c>
       <c r="V22" t="n">
         <v>0.005071792395434091</v>
@@ -6285,61 +6285,61 @@
         <v>0.01080867352355666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01163400920220646</v>
+        <v>0.01163400920220645</v>
       </c>
       <c r="E26" t="n">
         <v>0.01248065570095677</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01334819630865049</v>
+        <v>0.01334819630865048</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01423361122776783</v>
+        <v>0.01423361122776782</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01513743013840903</v>
+        <v>0.01513743013840902</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01605774578292384</v>
+        <v>0.01605774578292383</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01699447394007613</v>
+        <v>0.01699447394007612</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01794629393932536</v>
+        <v>0.01794629393932535</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0189141202514536</v>
+        <v>0.01891412025145359</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01989604406588295</v>
+        <v>0.01989604406588294</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02089343706869547</v>
+        <v>0.02089343706869546</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02190305141362245</v>
+        <v>0.02190305141362244</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02292254179579686</v>
+        <v>0.02292254179579685</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02395063073739565</v>
+        <v>0.02395063073739564</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02498748540378542</v>
+        <v>0.0249874854037854</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02603348245974178</v>
+        <v>0.02603348245974177</v>
       </c>
       <c r="T26" t="n">
         <v>0.02708890096472169</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02815171916463515</v>
+        <v>0.02815171916463513</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02921957609095427</v>
+        <v>0.02921957609095425</v>
       </c>
     </row>
     <row r="27">
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0003435857771978158</v>
+        <v>0.0003435857771978157</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0004449160806853948</v>
+        <v>0.0004449160806853947</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0005666142819391227</v>
+        <v>0.0005666142819391226</v>
       </c>
       <c r="E27" t="n">
         <v>0.0007079231277698609</v>
@@ -6379,37 +6379,37 @@
         <v>0.00190865939513943</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002148273691611422</v>
+        <v>0.002148273691611421</v>
       </c>
       <c r="M27" t="n">
         <v>0.002395442183125367</v>
       </c>
       <c r="N27" t="n">
-        <v>0.002648543496355239</v>
+        <v>0.002648543496355238</v>
       </c>
       <c r="O27" t="n">
         <v>0.002905973431260827</v>
       </c>
       <c r="P27" t="n">
-        <v>0.003167074807245682</v>
+        <v>0.003167074807245681</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003431351678098636</v>
+        <v>0.003431351678098635</v>
       </c>
       <c r="R27" t="n">
-        <v>0.00369781197862111</v>
+        <v>0.003697811978621109</v>
       </c>
       <c r="S27" t="n">
         <v>0.003966428292753269</v>
       </c>
       <c r="T27" t="n">
-        <v>0.004235881139437266</v>
+        <v>0.004235881139437265</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00450539250749981</v>
+        <v>0.004505392507499808</v>
       </c>
       <c r="V27" t="n">
-        <v>0.004774906787533411</v>
+        <v>0.004774906787533409</v>
       </c>
     </row>
     <row r="28">
@@ -6929,31 +6929,31 @@
         <v>0.6304362062360074</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6799193590276371</v>
+        <v>0.6799193590276372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7308784397918116</v>
+        <v>0.7308784397918117</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7831547330791122</v>
+        <v>0.7831547330791123</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8366206663185651</v>
+        <v>0.8366206663185654</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8913037420660508</v>
+        <v>0.8913037420660511</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9470183836460649</v>
+        <v>0.9470183836460653</v>
       </c>
       <c r="J6" t="n">
         <v>1.003569162515781</v>
       </c>
       <c r="K6" t="n">
-        <v>1.060966617022855</v>
+        <v>1.060966617022856</v>
       </c>
       <c r="L6" t="n">
-        <v>1.119120544024015</v>
+        <v>1.119120544024016</v>
       </c>
       <c r="M6" t="n">
         <v>1.177869240193183</v>
@@ -6974,13 +6974,13 @@
         <v>1.477515935573452</v>
       </c>
       <c r="S6" t="n">
-        <v>1.538431003671715</v>
+        <v>1.538431003671716</v>
       </c>
       <c r="T6" t="n">
         <v>1.59962701452303</v>
       </c>
       <c r="U6" t="n">
-        <v>1.661041578864093</v>
+        <v>1.661041578864094</v>
       </c>
       <c r="V6" t="n">
         <v>1.722614554153809</v>
@@ -7483,19 +7483,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08153188688543868</v>
+        <v>0.08153188688543869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08584561058513064</v>
+        <v>0.08584561058513066</v>
       </c>
       <c r="D14" t="n">
         <v>0.09021155531563647</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09461779557638147</v>
+        <v>0.09461779557638152</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09906046092934638</v>
+        <v>0.09906046092934639</v>
       </c>
       <c r="G14" t="n">
         <v>0.1035458844822682</v>
@@ -7534,13 +7534,13 @@
         <v>0.1547543688221875</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1595054003014673</v>
+        <v>0.1595054003014674</v>
       </c>
       <c r="T14" t="n">
         <v>0.1642615054761115</v>
       </c>
       <c r="U14" t="n">
-        <v>0.169021668981274</v>
+        <v>0.1690216689812741</v>
       </c>
       <c r="V14" t="n">
         <v>0.1737858941211646</v>
@@ -7857,7 +7857,7 @@
         <v>0.1806488241061877</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1914103917599586</v>
+        <v>0.1914103917599587</v>
       </c>
       <c r="K19" t="n">
         <v>0.2022893236272421</v>
@@ -7903,67 +7903,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09160045530086293</v>
+        <v>0.09160045530086287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09658097907143984</v>
+        <v>0.09658097907143978</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1016887205278934</v>
+        <v>0.1016887205278933</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1069148068381879</v>
+        <v>0.1069148068381878</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1122507790770735</v>
+        <v>0.1122507790770734</v>
       </c>
       <c r="G20" t="n">
         <v>0.1176914126562306</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1232301274630824</v>
+        <v>0.1232301274630823</v>
       </c>
       <c r="I20" t="n">
-        <v>0.128857507921387</v>
+        <v>0.1288575079213869</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1345644281243009</v>
+        <v>0.1345644281243008</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1403545277134974</v>
+        <v>0.1403545277134972</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1462117300324226</v>
+        <v>0.1462117300324225</v>
       </c>
       <c r="M20" t="n">
-        <v>0.152128453266614</v>
+        <v>0.1521284532666139</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1581115715134439</v>
+        <v>0.1581115715134438</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1641486213979847</v>
+        <v>0.1641486213979846</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1702267655320868</v>
+        <v>0.1702267655320867</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1763377970389489</v>
+        <v>0.1763377970389488</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1824876951492551</v>
+        <v>0.1824876951492549</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1886720724285043</v>
+        <v>0.1886720724285042</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1948818404323777</v>
+        <v>0.1948818404323776</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2011138092139041</v>
+        <v>0.2011138092139039</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2073606588849725</v>
+        <v>0.2073606588849724</v>
       </c>
     </row>
     <row r="21">
@@ -8052,7 +8052,7 @@
         <v>0.002741997894718688</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002884164944323853</v>
+        <v>0.002884164944323854</v>
       </c>
       <c r="F22" t="n">
         <v>0.003028447218409792</v>
@@ -8067,7 +8067,7 @@
         <v>0.003473519232899786</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003625598141294854</v>
+        <v>0.003625598141294855</v>
       </c>
       <c r="K22" t="n">
         <v>0.00377915294696525</v>
@@ -8079,31 +8079,31 @@
         <v>0.00408938511875565</v>
       </c>
       <c r="N22" t="n">
-        <v>0.004245475413769939</v>
+        <v>0.00424547541376994</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004402260320536632</v>
+        <v>0.004402260320536631</v>
       </c>
       <c r="P22" t="n">
         <v>0.00455964123302739</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.004717511987789477</v>
+        <v>0.004717511987789478</v>
       </c>
       <c r="R22" t="n">
-        <v>0.004875796368216128</v>
+        <v>0.004875796368216127</v>
       </c>
       <c r="S22" t="n">
         <v>0.005034551700678709</v>
       </c>
       <c r="T22" t="n">
-        <v>0.005193604193520565</v>
+        <v>0.005193604193520566</v>
       </c>
       <c r="U22" t="n">
         <v>0.005352798191441866</v>
       </c>
       <c r="V22" t="n">
-        <v>0.005512191428119409</v>
+        <v>0.005512191428119411</v>
       </c>
     </row>
     <row r="23">
@@ -8323,67 +8323,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01158598768039815</v>
+        <v>0.01158598768039814</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01239599833037888</v>
+        <v>0.01239599833037887</v>
       </c>
       <c r="D26" t="n">
         <v>0.01323044524217101</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0140855853986111</v>
+        <v>0.01408558539861109</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01495810998978775</v>
+        <v>0.01495810998978774</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01584979647688583</v>
+        <v>0.01584979647688582</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01675980209458516</v>
+        <v>0.01675980209458515</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01768934821564515</v>
+        <v>0.01768934821564513</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01863673975808204</v>
+        <v>0.01863673975808203</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01960150411196985</v>
+        <v>0.01960150411196984</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02058336711806422</v>
+        <v>0.02058336711806421</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0215794962744149</v>
+        <v>0.02157949627441489</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02258722113765673</v>
+        <v>0.02258722113765672</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02360591007745136</v>
+        <v>0.02360591007745135</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02463419929877996</v>
+        <v>0.02463419929877995</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02567201509107376</v>
+        <v>0.02567201509107375</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02671951692605304</v>
+        <v>0.02671951692605303</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02777499522385036</v>
+        <v>0.02777499522385034</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02883893296298386</v>
+        <v>0.02883893296298384</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02990909252236109</v>
+        <v>0.02990909252236108</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03098366717294547</v>
+        <v>0.03098366717294545</v>
       </c>
     </row>
     <row r="27">
@@ -8396,7 +8396,7 @@
         <v>0.0004582983945206448</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005742764562673592</v>
+        <v>0.000574276456267359</v>
       </c>
       <c r="D27" t="n">
         <v>0.0007067494160722126</v>
@@ -8423,13 +8423,13 @@
         <v>0.002086506545075698</v>
       </c>
       <c r="L27" t="n">
-        <v>0.002329813510967145</v>
+        <v>0.002329813510967143</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002579135911498579</v>
+        <v>0.002579135911498578</v>
       </c>
       <c r="N27" t="n">
-        <v>0.002834221246078792</v>
+        <v>0.002834221246078791</v>
       </c>
       <c r="O27" t="n">
         <v>0.003093478481087707</v>
@@ -8438,7 +8438,7 @@
         <v>0.003355643787343435</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003619503017524446</v>
+        <v>0.003619503017524445</v>
       </c>
       <c r="R27" t="n">
         <v>0.003884682623662353</v>
@@ -8967,31 +8967,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7380433403809314</v>
+        <v>0.7380433403809317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7852477109980944</v>
+        <v>0.7852477109980945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8339404925423516</v>
+        <v>0.8339404925423518</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8839179240845058</v>
+        <v>0.883917924084506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9352196750817557</v>
+        <v>0.935219675081756</v>
       </c>
       <c r="G6" t="n">
-        <v>0.987854319567034</v>
+        <v>0.9878543195670344</v>
       </c>
       <c r="H6" t="n">
-        <v>1.041705488447301</v>
+        <v>1.041705488447302</v>
       </c>
       <c r="I6" t="n">
         <v>1.096437549065285</v>
       </c>
       <c r="J6" t="n">
-        <v>1.152043714363573</v>
+        <v>1.152043714363574</v>
       </c>
       <c r="K6" t="n">
         <v>1.208580377458344</v>
@@ -9000,34 +9000,34 @@
         <v>1.266017266659398</v>
       </c>
       <c r="M6" t="n">
-        <v>1.32414895376913</v>
+        <v>1.324148953769131</v>
       </c>
       <c r="N6" t="n">
         <v>1.382913633152745</v>
       </c>
       <c r="O6" t="n">
-        <v>1.442337140805243</v>
+        <v>1.442337140805244</v>
       </c>
       <c r="P6" t="n">
-        <v>1.502280701049055</v>
+        <v>1.502280701049056</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56263645560628</v>
+        <v>1.562636455606281</v>
       </c>
       <c r="R6" t="n">
         <v>1.623247086822394</v>
       </c>
       <c r="S6" t="n">
-        <v>1.684064400377627</v>
+        <v>1.684064400377628</v>
       </c>
       <c r="T6" t="n">
-        <v>1.745015444759652</v>
+        <v>1.745015444759653</v>
       </c>
       <c r="U6" t="n">
         <v>1.80619478117549</v>
       </c>
       <c r="V6" t="n">
-        <v>1.867519350116051</v>
+        <v>1.867519350116052</v>
       </c>
     </row>
     <row r="7">
@@ -9527,13 +9527,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08817435690485211</v>
+        <v>0.08817435690485212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09226431708910485</v>
+        <v>0.09226431708910486</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09643079139658096</v>
+        <v>0.09643079139658099</v>
       </c>
       <c r="E14" t="n">
         <v>0.1006684496857962</v>
@@ -9545,7 +9545,7 @@
         <v>0.1093179960510852</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1137141827636834</v>
+        <v>0.1137141827636835</v>
       </c>
       <c r="I14" t="n">
         <v>0.1181512108960099</v>
@@ -9554,13 +9554,13 @@
         <v>0.1226347900141136</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1271524318134424</v>
+        <v>0.1271524318134425</v>
       </c>
       <c r="L14" t="n">
         <v>0.1316957275632663</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1362672162450853</v>
+        <v>0.1362672162450854</v>
       </c>
       <c r="N14" t="n">
         <v>0.1408681921633781</v>
@@ -9578,7 +9578,7 @@
         <v>0.1595446756994141</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1642717604932923</v>
+        <v>0.1642717604932924</v>
       </c>
       <c r="T14" t="n">
         <v>0.1690133901908779</v>
@@ -9877,13 +9877,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1323668950846468</v>
+        <v>0.1323668950846469</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1412026994501997</v>
+        <v>0.1412026994501996</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1503167838649905</v>
+        <v>0.1503167838649904</v>
       </c>
       <c r="E19" t="n">
         <v>0.1597243314406561</v>
@@ -9892,7 +9892,7 @@
         <v>0.1694078969666998</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1793327744159011</v>
+        <v>0.1793327744159012</v>
       </c>
       <c r="H19" t="n">
         <v>0.1894618535972098</v>
@@ -9919,7 +9919,7 @@
         <v>0.2656255553126124</v>
       </c>
       <c r="P19" t="n">
-        <v>0.277030666029764</v>
+        <v>0.2770306660297641</v>
       </c>
       <c r="Q19" t="n">
         <v>0.2884778080338368</v>
@@ -9947,67 +9947,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09545549107237597</v>
+        <v>0.0954554910723759</v>
       </c>
       <c r="C20" t="n">
         <v>0.1003821696718854</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1054407044281033</v>
+        <v>0.1054407044281032</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1106174744016665</v>
+        <v>0.1106174744016664</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1159224502339065</v>
+        <v>0.1159224502339064</v>
       </c>
       <c r="G20" t="n">
-        <v>0.121341140722036</v>
+        <v>0.1213411407220359</v>
       </c>
       <c r="H20" t="n">
         <v>0.1268813990517109</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1325285131740635</v>
+        <v>0.1325285131740634</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1382689273596841</v>
+        <v>0.138268927359684</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1440913121104347</v>
+        <v>0.1440913121104346</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1499829897126258</v>
+        <v>0.1499829897126257</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1559372858757145</v>
+        <v>0.1559372858757144</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1619420481460753</v>
+        <v>0.1619420481460752</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1679877177098625</v>
+        <v>0.1679877177098624</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1740664248423777</v>
+        <v>0.1740664248423776</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1801825053413085</v>
+        <v>0.1801825053413083</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1863275961268109</v>
+        <v>0.1863275961268107</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1924996607356683</v>
+        <v>0.1924996607356681</v>
       </c>
       <c r="T20" t="n">
-        <v>0.198693026907736</v>
+        <v>0.1986930269077359</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2049129180179992</v>
+        <v>0.2049129180179991</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2111578327914432</v>
+        <v>0.211157832791443</v>
       </c>
     </row>
     <row r="21">
@@ -10096,7 +10096,7 @@
         <v>0.002925749538628419</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003075081360710858</v>
+        <v>0.003075081360710859</v>
       </c>
       <c r="F22" t="n">
         <v>0.003226050883677536</v>
@@ -10120,19 +10120,19 @@
         <v>0.004156415107176927</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004314271630442454</v>
+        <v>0.004314271630442455</v>
       </c>
       <c r="N22" t="n">
         <v>0.004472719183517461</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004631662431716383</v>
+        <v>0.004631662431716385</v>
       </c>
       <c r="P22" t="n">
         <v>0.004791094625598317</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.004950820186391723</v>
+        <v>0.004950820186391724</v>
       </c>
       <c r="R22" t="n">
         <v>0.005110732795088022</v>
@@ -10144,7 +10144,7 @@
         <v>0.005431138419165567</v>
       </c>
       <c r="U22" t="n">
-        <v>0.005591568899166239</v>
+        <v>0.00559156889916624</v>
       </c>
       <c r="V22" t="n">
         <v>0.005752035426207587</v>
@@ -10373,61 +10373,61 @@
         <v>0.01315710478085474</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01402105653682762</v>
+        <v>0.01402105653682761</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01491113130299851</v>
+        <v>0.0149111313029985</v>
       </c>
       <c r="F26" t="n">
         <v>0.01582523553456608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01676109479164094</v>
+        <v>0.01676109479164093</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01771654281185296</v>
+        <v>0.01771654281185295</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01869047319515145</v>
+        <v>0.01869047319515144</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01968180526432731</v>
+        <v>0.0196818052643273</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02068732164447848</v>
+        <v>0.02068732164447847</v>
       </c>
       <c r="L26" t="n">
         <v>0.02170635352034699</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02274155015870888</v>
+        <v>0.02274155015870887</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02378981336670061</v>
+        <v>0.0237898133667006</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02484743171958584</v>
+        <v>0.02484743171958583</v>
       </c>
       <c r="P26" t="n">
         <v>0.02591298970913841</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02698567274327201</v>
+        <v>0.026985672743272</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0280636527879689</v>
+        <v>0.02806365278796888</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02914767336430506</v>
+        <v>0.02914767336430505</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0302357305049582</v>
+        <v>0.03023573050495819</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03132708384421972</v>
+        <v>0.03132708384421971</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03242181992218567</v>
+        <v>0.03242181992218564</v>
       </c>
     </row>
     <row r="27">
@@ -10437,10 +10437,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0006514770524029241</v>
+        <v>0.000651477052402924</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0007868395881504416</v>
+        <v>0.0007868395881504413</v>
       </c>
       <c r="D27" t="n">
         <v>0.0009391629388095857</v>
@@ -10458,7 +10458,7 @@
         <v>0.001707797254928518</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001935522810416692</v>
+        <v>0.001935522810416691</v>
       </c>
       <c r="J27" t="n">
         <v>0.002173133258455773</v>
@@ -10470,13 +10470,13 @@
         <v>0.00266774899012402</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002923941903274411</v>
+        <v>0.00292394190327441</v>
       </c>
       <c r="N27" t="n">
-        <v>0.003184650393806867</v>
+        <v>0.003184650393806866</v>
       </c>
       <c r="O27" t="n">
-        <v>0.003447893274571022</v>
+        <v>0.003447893274571021</v>
       </c>
       <c r="P27" t="n">
         <v>0.003712143236163958</v>
@@ -10485,13 +10485,13 @@
         <v>0.003977454058616054</v>
       </c>
       <c r="R27" t="n">
-        <v>0.004243564555485683</v>
+        <v>0.004243564555485682</v>
       </c>
       <c r="S27" t="n">
         <v>0.004510108173721425</v>
       </c>
       <c r="T27" t="n">
-        <v>0.004777078628398495</v>
+        <v>0.004777078628398494</v>
       </c>
       <c r="U27" t="n">
         <v>0.005044101329346533</v>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6887168913129956</v>
+        <v>0.6887168913129958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7373616374288219</v>
+        <v>0.7373616374288221</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7875728758881895</v>
+        <v>0.7875728758881897</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8390889281659036</v>
+        <v>0.8390889281659037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8918807661482406</v>
+        <v>0.8918807661482409</v>
       </c>
       <c r="G6" t="n">
         <v>0.9458492613707786</v>
@@ -11032,7 +11032,7 @@
         <v>1.000888029786615</v>
       </c>
       <c r="I6" t="n">
-        <v>1.056703629707785</v>
+        <v>1.056703629707786</v>
       </c>
       <c r="J6" t="n">
         <v>1.113346666519202</v>
@@ -11050,7 +11050,7 @@
         <v>1.347234944712531</v>
       </c>
       <c r="O6" t="n">
-        <v>1.407131411411674</v>
+        <v>1.407131411411675</v>
       </c>
       <c r="P6" t="n">
         <v>1.467305091422805</v>
@@ -11065,10 +11065,10 @@
         <v>1.64930995388927</v>
       </c>
       <c r="T6" t="n">
-        <v>1.710506146071998</v>
+        <v>1.710506146071999</v>
       </c>
       <c r="U6" t="n">
-        <v>1.771895608664891</v>
+        <v>1.771895608664892</v>
       </c>
       <c r="V6" t="n">
         <v>1.833384374897682</v>
@@ -11571,13 +11571,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08817435690485211</v>
+        <v>0.08817435690485212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09226431708910485</v>
+        <v>0.09226431708910486</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09643079139658096</v>
+        <v>0.09643079139658099</v>
       </c>
       <c r="E14" t="n">
         <v>0.1006684496857962</v>
@@ -11589,7 +11589,7 @@
         <v>0.1093179960510852</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1137141827636834</v>
+        <v>0.1137141827636835</v>
       </c>
       <c r="I14" t="n">
         <v>0.1181512108960099</v>
@@ -11598,13 +11598,13 @@
         <v>0.1226347900141136</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1271524318134424</v>
+        <v>0.1271524318134425</v>
       </c>
       <c r="L14" t="n">
         <v>0.1316957275632663</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1362672162450853</v>
+        <v>0.1362672162450854</v>
       </c>
       <c r="N14" t="n">
         <v>0.1408681921633781</v>
@@ -11622,7 +11622,7 @@
         <v>0.1595446756994141</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1642717604932923</v>
+        <v>0.1642717604932924</v>
       </c>
       <c r="T14" t="n">
         <v>0.1690133901908779</v>
@@ -11924,13 +11924,13 @@
         <v>0.117012906067591</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1256494598028178</v>
+        <v>0.1256494598028179</v>
       </c>
       <c r="D19" t="n">
         <v>0.1347050469690956</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1440934514882343</v>
+        <v>0.1440934514882344</v>
       </c>
       <c r="F19" t="n">
         <v>0.153770998396369</v>
@@ -11948,13 +11948,13 @@
         <v>0.1949559685892945</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2057333840262268</v>
+        <v>0.2057333840262267</v>
       </c>
       <c r="L19" t="n">
         <v>0.2166262905438259</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2276076715444122</v>
+        <v>0.2276076715444121</v>
       </c>
       <c r="N19" t="n">
         <v>0.2386945666664194</v>
@@ -11963,7 +11963,7 @@
         <v>0.2498904363175738</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2611784341041607</v>
+        <v>0.2611784341041608</v>
       </c>
       <c r="Q19" t="n">
         <v>0.2725154290434119</v>
@@ -11981,7 +11981,7 @@
         <v>0.3182703813793288</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3297848780465056</v>
+        <v>0.3297848780465057</v>
       </c>
     </row>
     <row r="20">
@@ -11991,67 +11991,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09160045530086293</v>
+        <v>0.09160045530086287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09658097907143984</v>
+        <v>0.09658097907143978</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1016887205278934</v>
+        <v>0.1016887205278933</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1069148068381879</v>
+        <v>0.1069148068381878</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1122507790770735</v>
+        <v>0.1122507790770734</v>
       </c>
       <c r="G20" t="n">
         <v>0.1176914126562306</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1232301274630824</v>
+        <v>0.1232301274630823</v>
       </c>
       <c r="I20" t="n">
-        <v>0.128857507921387</v>
+        <v>0.1288575079213869</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1345644281243009</v>
+        <v>0.1345644281243008</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1403545277134974</v>
+        <v>0.1403545277134972</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1462117300324226</v>
+        <v>0.1462117300324225</v>
       </c>
       <c r="M20" t="n">
-        <v>0.152128453266614</v>
+        <v>0.1521284532666139</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1581115715134439</v>
+        <v>0.1581115715134438</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1641486213979847</v>
+        <v>0.1641486213979846</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1702267655320868</v>
+        <v>0.1702267655320867</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1763377970389489</v>
+        <v>0.1763377970389488</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1824876951492551</v>
+        <v>0.1824876951492549</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1886720724285043</v>
+        <v>0.1886720724285042</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1948818404323777</v>
+        <v>0.1948818404323776</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2011138092139041</v>
+        <v>0.2011138092139039</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2073606588849725</v>
+        <v>0.2073606588849724</v>
       </c>
     </row>
     <row r="21">
@@ -12146,19 +12146,19 @@
         <v>0.003211258987211632</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003358560083628447</v>
+        <v>0.003358560083628448</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003507376073225403</v>
+        <v>0.003507376073225404</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003657575702030452</v>
+        <v>0.003657575702030453</v>
       </c>
       <c r="J22" t="n">
         <v>0.003809018996412562</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003961472246754474</v>
+        <v>0.003961472246754475</v>
       </c>
       <c r="L22" t="n">
         <v>0.004114975122284391</v>
@@ -12170,19 +12170,19 @@
         <v>0.004424454918436557</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00458033176377936</v>
+        <v>0.004580331763779359</v>
       </c>
       <c r="P22" t="n">
         <v>0.00473680875833821</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.004893606092447568</v>
+        <v>0.004893606092447569</v>
       </c>
       <c r="R22" t="n">
-        <v>0.005050648659400728</v>
+        <v>0.00505064865940073</v>
       </c>
       <c r="S22" t="n">
-        <v>0.005207974292615493</v>
+        <v>0.005207974292615494</v>
       </c>
       <c r="T22" t="n">
         <v>0.005365492930533573</v>
@@ -12191,7 +12191,7 @@
         <v>0.005523193771518116</v>
       </c>
       <c r="V22" t="n">
-        <v>0.00568104798436652</v>
+        <v>0.005681047984366521</v>
       </c>
     </row>
     <row r="23">
@@ -12414,25 +12414,25 @@
         <v>0.0127666293766809</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01356839944361697</v>
+        <v>0.01356839944361696</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01438945884597243</v>
+        <v>0.01438945884597242</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01523168381553642</v>
+        <v>0.01523168381553641</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01609317641214322</v>
+        <v>0.01609317641214321</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01697377659394682</v>
+        <v>0.01697377659394681</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01787429461394629</v>
+        <v>0.01787429461394627</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01879396212920229</v>
+        <v>0.01879396212920228</v>
       </c>
       <c r="J26" t="n">
         <v>0.01973328040958935</v>
@@ -12441,37 +12441,37 @@
         <v>0.02068850270476287</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02165844666726673</v>
+        <v>0.02165844666726672</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02264202152937785</v>
+        <v>0.02264202152937783</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02363849940171045</v>
+        <v>0.02363849940171044</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02464792326821395</v>
+        <v>0.02464792326821394</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0256695464990224</v>
+        <v>0.02566954649902239</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02670282238554669</v>
+        <v>0.02670282238554668</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02774401362463851</v>
+        <v>0.0277440136246385</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02879368714105095</v>
+        <v>0.02879368714105093</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02985007124467225</v>
+        <v>0.02985007124467224</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03091267814737018</v>
+        <v>0.03091267814737016</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03198062887492414</v>
+        <v>0.03198062887492413</v>
       </c>
     </row>
     <row r="27">
@@ -12490,10 +12490,10 @@
         <v>0.0006607213793105271</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0008097932157140739</v>
+        <v>0.0008097932157140738</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0009791165972633487</v>
+        <v>0.0009791165972633485</v>
       </c>
       <c r="G27" t="n">
         <v>0.001164862513795152</v>
@@ -12508,7 +12508,7 @@
         <v>0.001817597705721043</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002059699032624872</v>
+        <v>0.002059699032624871</v>
       </c>
       <c r="L27" t="n">
         <v>0.002308906713947325</v>
@@ -12526,19 +12526,19 @@
         <v>0.003340357761806266</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003604126694272658</v>
+        <v>0.003604126694272657</v>
       </c>
       <c r="R27" t="n">
-        <v>0.003868965084098344</v>
+        <v>0.003868965084098343</v>
       </c>
       <c r="S27" t="n">
-        <v>0.00413474631327581</v>
+        <v>0.004134746313275809</v>
       </c>
       <c r="T27" t="n">
-        <v>0.00440124664273671</v>
+        <v>0.004401246642736709</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004668305043982152</v>
+        <v>0.004668305043982151</v>
       </c>
       <c r="V27" t="n">
         <v>0.004935899031579059</v>
@@ -13055,34 +13055,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5182629442389304</v>
+        <v>0.5182629442389306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5634333252751893</v>
+        <v>0.5634333252751895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6100945015012479</v>
+        <v>0.610094501501248</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6582122248306355</v>
+        <v>0.6582122248306356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7076621137795774</v>
+        <v>0.7076621137795777</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7583180318739423</v>
+        <v>0.7583180318739425</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8101033982329021</v>
+        <v>0.8101033982329024</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8630145678586836</v>
+        <v>0.863014567858684</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9168167302317231</v>
+        <v>0.9168167302317233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9714446329526052</v>
+        <v>0.9714446329526056</v>
       </c>
       <c r="L6" t="n">
         <v>1.026932861825954</v>
@@ -13091,7 +13091,7 @@
         <v>1.083189130605503</v>
       </c>
       <c r="N6" t="n">
-        <v>1.140004841791724</v>
+        <v>1.140004841791725</v>
       </c>
       <c r="O6" t="n">
         <v>1.197273977893235</v>
@@ -13100,22 +13100,22 @@
         <v>1.254981726801266</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.313186283020753</v>
+        <v>1.313186283020754</v>
       </c>
       <c r="R6" t="n">
-        <v>1.371856718865084</v>
+        <v>1.371856718865085</v>
       </c>
       <c r="S6" t="n">
-        <v>1.430955974308401</v>
+        <v>1.430955974308402</v>
       </c>
       <c r="T6" t="n">
         <v>1.490400204771351</v>
       </c>
       <c r="U6" t="n">
-        <v>1.550108199995811</v>
+        <v>1.550108199995812</v>
       </c>
       <c r="V6" t="n">
-        <v>1.610167032295853</v>
+        <v>1.610167032295854</v>
       </c>
     </row>
     <row r="7">
@@ -13615,25 +13615,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06958270939115661</v>
+        <v>0.06958270939115663</v>
       </c>
       <c r="C14" t="n">
         <v>0.07342403327985053</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07735423925595059</v>
+        <v>0.0773542392559506</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08136007590490212</v>
+        <v>0.08136007590490213</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08543396597387624</v>
+        <v>0.08543396597387626</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08957582374838635</v>
+        <v>0.08957582374838637</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09377421356411507</v>
+        <v>0.09377421356411508</v>
       </c>
       <c r="I14" t="n">
         <v>0.0980351028867255</v>
@@ -13651,10 +13651,10 @@
         <v>0.1155646333710903</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1200585344741904</v>
+        <v>0.1200585344741905</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1245813489162164</v>
+        <v>0.1245813489162165</v>
       </c>
       <c r="P14" t="n">
         <v>0.1291326603586411</v>
@@ -13669,7 +13669,7 @@
         <v>0.1429448048265132</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1476039749722075</v>
+        <v>0.1476039749722076</v>
       </c>
       <c r="U14" t="n">
         <v>0.1522832927505383</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08444482498620107</v>
+        <v>0.08444482498620109</v>
       </c>
       <c r="C19" t="n">
         <v>0.09267059534068454</v>
@@ -13974,7 +13974,7 @@
         <v>0.1014380760137875</v>
       </c>
       <c r="E19" t="n">
-        <v>0.110703465492566</v>
+        <v>0.1107034654925661</v>
       </c>
       <c r="F19" t="n">
         <v>0.1203471974351072</v>
@@ -14004,10 +14004,10 @@
         <v>0.2055697673419299</v>
       </c>
       <c r="O19" t="n">
-        <v>0.216847461123247</v>
+        <v>0.2168474611232471</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2281971862186352</v>
+        <v>0.2281971862186351</v>
       </c>
       <c r="Q19" t="n">
         <v>0.2396022370987099</v>
@@ -14035,67 +14035,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09140463401121129</v>
+        <v>0.09140463401121124</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09628542960348981</v>
+        <v>0.09628542960348974</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1013144930428768</v>
+        <v>0.1013144930428767</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1064890211681416</v>
+        <v>0.1064890211681415</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1118229575947931</v>
+        <v>0.111822957594793</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1173010373687729</v>
+        <v>0.1173010373687728</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1228989175183886</v>
+        <v>0.1228989175183885</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1285968097575578</v>
+        <v>0.1285968097575577</v>
       </c>
       <c r="J20" t="n">
         <v>0.1343956017719485</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1402876947910664</v>
+        <v>0.1402876947910663</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1462566611054654</v>
+        <v>0.1462566611054653</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1522915552472218</v>
+        <v>0.1522915552472217</v>
       </c>
       <c r="N20" t="n">
-        <v>0.158377120577065</v>
+        <v>0.1583771205770649</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1645097741579291</v>
+        <v>0.164509774157929</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1706735885118638</v>
+        <v>0.1706735885118636</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1768747230799812</v>
+        <v>0.1768747230799811</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1831058985368754</v>
+        <v>0.1831058985368753</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1893581930107464</v>
+        <v>0.1893581930107463</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1956335527998239</v>
+        <v>0.1956335527998238</v>
       </c>
       <c r="U20" t="n">
-        <v>0.201915569873716</v>
+        <v>0.2019155698737158</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2082022462210718</v>
+        <v>0.2082022462210716</v>
       </c>
     </row>
     <row r="21">
@@ -14196,7 +14196,7 @@
         <v>0.002988611572762887</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003133685746667911</v>
+        <v>0.003133685746667912</v>
       </c>
       <c r="J22" t="n">
         <v>0.00328047848596313</v>
@@ -14211,31 +14211,31 @@
         <v>0.003730803579983697</v>
       </c>
       <c r="N22" t="n">
-        <v>0.003883613141141959</v>
+        <v>0.00388361314114196</v>
       </c>
       <c r="O22" t="n">
         <v>0.004037485852472909</v>
       </c>
       <c r="P22" t="n">
-        <v>0.004192446097073101</v>
+        <v>0.004192446097073103</v>
       </c>
       <c r="Q22" t="n">
         <v>0.004348418245946522</v>
       </c>
       <c r="R22" t="n">
-        <v>0.004505202863207621</v>
+        <v>0.004505202863207622</v>
       </c>
       <c r="S22" t="n">
         <v>0.004662541292920824</v>
       </c>
       <c r="T22" t="n">
-        <v>0.004820484589710283</v>
+        <v>0.004820484589710282</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004978909808856138</v>
+        <v>0.004978909808856139</v>
       </c>
       <c r="V22" t="n">
-        <v>0.005137638678563752</v>
+        <v>0.005137638678563754</v>
       </c>
     </row>
     <row r="23">
@@ -14455,22 +14455,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009187231944299299</v>
+        <v>0.009187231944299294</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009968678574925921</v>
+        <v>0.009968678574925918</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01077621766515929</v>
+        <v>0.01077621766515928</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01160819792673673</v>
+        <v>0.01160819792673672</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01246198776329557</v>
+        <v>0.01246198776329556</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01333577862889464</v>
+        <v>0.01333577862889463</v>
       </c>
       <c r="H26" t="n">
         <v>0.01423136760209286</v>
@@ -14479,43 +14479,43 @@
         <v>0.01514834425576112</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01608458481844581</v>
+        <v>0.0160845848184458</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01703800951029471</v>
+        <v>0.0170380095102947</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01800802377188486</v>
+        <v>0.01800802377188485</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01899200756824915</v>
+        <v>0.01899200756824914</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01998964061143214</v>
+        <v>0.01998964061143213</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02099927180364951</v>
+        <v>0.0209992718036495</v>
       </c>
       <c r="P26" t="n">
         <v>0.02202078095289777</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02305255850183867</v>
+        <v>0.02305255850183865</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02409308165136737</v>
+        <v>0.02409308165136735</v>
       </c>
       <c r="S26" t="n">
         <v>0.02514155768740987</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02619741319138302</v>
+        <v>0.026197413191383</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02726027488971607</v>
+        <v>0.02726027488971606</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02832930075971427</v>
+        <v>0.02832930075971426</v>
       </c>
     </row>
     <row r="27">
@@ -14525,19 +14525,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0003750410222446931</v>
+        <v>0.000375041022244693</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0004748511456170544</v>
+        <v>0.0004748511456170543</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000590392836766574</v>
+        <v>0.0005903928367665739</v>
       </c>
       <c r="E27" t="n">
         <v>0.0007229552697948162</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0008756419468517166</v>
+        <v>0.0008756419468517164</v>
       </c>
       <c r="G27" t="n">
         <v>0.001045443377571266</v>
@@ -14552,7 +14552,7 @@
         <v>0.001652879096948684</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00188141575665749</v>
+        <v>0.001881415756657489</v>
       </c>
       <c r="L27" t="n">
         <v>0.002119184702218981</v>
@@ -14570,22 +14570,22 @@
         <v>0.003127200723623126</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003387813472547477</v>
+        <v>0.003387813472547476</v>
       </c>
       <c r="R27" t="n">
-        <v>0.003650295879816064</v>
+        <v>0.003650295879816063</v>
       </c>
       <c r="S27" t="n">
-        <v>0.003914526686998009</v>
+        <v>0.003914526686998008</v>
       </c>
       <c r="T27" t="n">
-        <v>0.004180350649092058</v>
+        <v>0.004180350649092057</v>
       </c>
       <c r="U27" t="n">
         <v>0.00444703214256076</v>
       </c>
       <c r="V27" t="n">
-        <v>0.004714399458349343</v>
+        <v>0.004714399458349342</v>
       </c>
     </row>
     <row r="28">
